--- a/source_data/uploaders/Final pleas and clemency pleas_hierarchy_aspace.xlsx
+++ b/source_data/uploaders/Final pleas and clemency pleas_hierarchy_aspace.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nickbudak/Projects/nta-arclight/source_data/uploaders/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81C351A3-EA62-BC44-8CE7-6536DA1DA0A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A222A1-9E40-3B44-ABB7-6A33607E39EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="34400" yWindow="500" windowWidth="34400" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1699,7 +1699,7 @@
     <t>text</t>
   </si>
   <si>
-    <t>box</t>
+    <t>Box</t>
   </si>
   <si>
     <t>11</t>
